--- a/ProductBacklog_v.29.10.xlsx
+++ b/ProductBacklog_v.29.10.xlsx
@@ -309,7 +309,7 @@
     <t>"3D" bræt</t>
   </si>
   <si>
-    <t>Revideret 29/10 kl. 9:15</t>
+    <t>Revideret 29/10 kl. 13:50</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -459,7 +458,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,21 +757,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="6"/>
@@ -779,7 +779,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -828,21 +828,21 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
         <v>39</v>
@@ -850,10 +850,10 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
         <v>73</v>
@@ -861,7 +861,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5"/>
@@ -872,14 +872,14 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="6"/>
@@ -888,7 +888,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
@@ -899,26 +899,26 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>SUM(D19:D25)</f>
         <v>12</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="5"/>
@@ -929,10 +929,10 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
         <v>5</v>
@@ -940,7 +940,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="5"/>
@@ -958,7 +958,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="6"/>
@@ -967,7 +967,7 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="5"/>
@@ -978,7 +978,7 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5"/>
@@ -989,10 +989,10 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>2</v>
@@ -1010,20 +1010,17 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="8">
-        <f>SUM(D29:D43)</f>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
+        <f>SUM(D30:D43)</f>
         <v>39</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6">
-        <v>2</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1031,7 +1028,7 @@
       <c r="A30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>2</v>
@@ -1045,7 +1042,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -1053,10 +1050,10 @@
       <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -1064,7 +1061,7 @@
       <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6">
         <v>2</v>
@@ -1075,10 +1072,10 @@
       <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="6"/>
     </row>
@@ -1086,10 +1083,10 @@
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E35" s="6"/>
     </row>
@@ -1100,7 +1097,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36" s="6"/>
     </row>
@@ -1110,18 +1107,19 @@
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6">
+        <v>6</v>
+      </c>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="6"/>
@@ -1148,7 +1146,7 @@
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="6"/>
@@ -1160,7 +1158,7 @@
       <c r="A43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6">
         <v>5</v>
@@ -1182,14 +1180,14 @@
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <f>SUM(D47:D60)</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E46" s="6"/>
     </row>
@@ -1230,7 +1228,7 @@
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6">
         <v>2</v>
@@ -1263,7 +1261,7 @@
       <c r="A53" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6">
         <v>2</v>
@@ -1332,21 +1330,19 @@
       <c r="B59" s="2"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6">
-        <v>10</v>
-      </c>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="6"/>
@@ -1369,12 +1365,12 @@
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <f>SUM(D65:D73)</f>
         <v>22</v>
       </c>
@@ -1465,7 +1461,7 @@
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="6"/>

--- a/ProductBacklog_v.29.10.xlsx
+++ b/ProductBacklog_v.29.10.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Score</t>
   </si>
@@ -310,6 +310,42 @@
   </si>
   <si>
     <t>Revideret 29/10 kl. 13:50</t>
+  </si>
+  <si>
+    <t>Ansvarsperson(er)</t>
+  </si>
+  <si>
+    <t>Peter R., Dan R</t>
+  </si>
+  <si>
+    <t>Jannik E., Marcus M., Elinor M., Emil N., Niki T.</t>
+  </si>
+  <si>
+    <t>Markus S., Peter B.</t>
+  </si>
+  <si>
+    <t>Marcus M., Emil N.</t>
+  </si>
+  <si>
+    <t>Peter R., Jannik E., Dan R.</t>
+  </si>
+  <si>
+    <t>Peter R., Jannik E., Marcus M.</t>
+  </si>
+  <si>
+    <t>Peter R., Niki T., Jannik E.</t>
+  </si>
+  <si>
+    <t>Peter R., Jannik E., Marcus M., Dan R.</t>
+  </si>
+  <si>
+    <t>Elinor M.</t>
+  </si>
+  <si>
+    <t>Emil N., Marcus M.</t>
+  </si>
+  <si>
+    <t>Emil N.</t>
   </si>
 </sst>
 </file>
@@ -740,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,11 +788,13 @@
     <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
@@ -764,10 +802,13 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
@@ -778,56 +819,56 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -838,7 +879,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
@@ -847,9 +888,11 @@
       <c r="D11" s="6">
         <v>39</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -858,9 +901,11 @@
       <c r="D12" s="6">
         <v>73</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
@@ -869,16 +914,18 @@
       <c r="D13" s="6">
         <v>12</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -887,7 +934,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -896,7 +943,9 @@
       <c r="D16" s="6">
         <v>30</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
@@ -926,7 +975,9 @@
       <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -937,7 +988,9 @@
       <c r="D20" s="6">
         <v>5</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -948,7 +1001,9 @@
       <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
@@ -975,7 +1030,9 @@
       <c r="D24" s="6">
         <v>0.5</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -986,7 +1043,9 @@
       <c r="D25" s="6">
         <v>0.5</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -997,7 +1056,9 @@
       <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -1033,7 +1094,9 @@
       <c r="D30" s="6">
         <v>2</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
@@ -1044,7 +1107,9 @@
       <c r="D31" s="6">
         <v>2</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -1055,7 +1120,9 @@
       <c r="D32" s="6">
         <v>8</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -1066,7 +1133,9 @@
       <c r="D33" s="6">
         <v>2</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -1077,7 +1146,9 @@
       <c r="D34" s="6">
         <v>2</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -1088,7 +1159,9 @@
       <c r="D35" s="6">
         <v>3</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
@@ -1099,7 +1172,9 @@
       <c r="D36" s="6">
         <v>8</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
@@ -1110,7 +1185,9 @@
       <c r="D37" s="6">
         <v>6</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -1163,7 +1240,9 @@
       <c r="D43" s="6">
         <v>5</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
@@ -1200,7 +1279,9 @@
       <c r="D47" s="6">
         <v>4</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
@@ -1233,7 +1314,9 @@
       <c r="D50" s="6">
         <v>2</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
@@ -1244,13 +1327,15 @@
       <c r="D51" s="6">
         <v>2</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6">
         <v>1</v>

--- a/ProductBacklog_v.29.10.xlsx
+++ b/ProductBacklog_v.29.10.xlsx
@@ -321,9 +321,6 @@
     <t>Jannik E., Marcus M., Elinor M., Emil N., Niki T.</t>
   </si>
   <si>
-    <t>Markus S., Peter B.</t>
-  </si>
-  <si>
     <t>Marcus M., Emil N.</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Emil N.</t>
+  </si>
+  <si>
+    <t>Markus S., Peter J.</t>
   </si>
 </sst>
 </file>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -944,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -989,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1031,7 +1031,7 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1121,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
